--- a/auto_appium/app_testProject/Report/Report.xlsx
+++ b/auto_appium/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-09-05 16:41:58</t>
+    <t>2018-09-07 16:33:31</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>12秒</t>
+    <t>1秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,9 +77,6 @@
     <t>失败</t>
   </si>
   <si>
-    <t>brand1_model2_android_5.1.1</t>
-  </si>
-  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -108,26 +105,6 @@
   </si>
   <si>
     <t>截图</t>
-  </si>
-  <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>第一次启动app</t>
-  </si>
-  <si>
-    <t>testFirstOpen</t>
-  </si>
-  <si>
-    <t>打开app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">打开页面成功
-</t>
   </si>
 </sst>
 </file>
@@ -285,7 +262,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -683,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -700,7 +677,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -748,17 +725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -792,7 +759,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -809,61 +776,34 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1"/>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>

--- a/auto_appium/app_testProject/Report/Report.xlsx
+++ b/auto_appium/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-09-07 16:33:31</t>
+    <t>2018-09-10 16:34:07</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>1秒</t>
+    <t>10秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -77,6 +77,9 @@
     <t>失败</t>
   </si>
   <si>
+    <t>brand1_model2_android_5.1.1</t>
+  </si>
+  <si>
     <t>测试详情</t>
   </si>
   <si>
@@ -105,6 +108,27 @@
   </si>
   <si>
     <t>截图</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>第一次启动app</t>
+  </si>
+  <si>
+    <t>testFirstOpen</t>
+  </si>
+  <si>
+    <t>打开app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击通讯录
+点击我
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打开页面成功
+</t>
   </si>
 </sst>
 </file>
@@ -262,7 +286,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -660,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -677,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -725,7 +749,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1"/>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
@@ -759,7 +793,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -776,34 +810,61 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
     <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>

--- a/auto_appium/app_testProject/Report/Report.xlsx
+++ b/auto_appium/app_testProject/Report/Report.xlsx
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-09-10 16:34:07</t>
+    <t>2018-09-10 16:59:07</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>10秒</t>
+    <t>12秒</t>
   </si>
   <si>
     <t>脚本语言</t>

--- a/auto_appium/app_testProject/Report/Report.xlsx
+++ b/auto_appium/app_testProject/Report/Report.xlsx
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-09-10 16:59:07</t>
+    <t>2018-09-11 17:22:04</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>12秒</t>
+    <t>13秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,24 +110,25 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>第一次启动app</t>
-  </si>
-  <si>
-    <t>testFirstOpen</t>
-  </si>
-  <si>
-    <t>打开app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击通讯录
-点击我
+    <t>test001_test002_</t>
+  </si>
+  <si>
+    <t>第一次启动app_登录_</t>
+  </si>
+  <si>
+    <t>multi_testcase</t>
+  </si>
+  <si>
+    <t>打开app_输入账号_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录
+输入账号
 </t>
   </si>
   <si>
     <t xml:space="preserve">打开页面成功
+输入成功
 </t>
   </si>
 </sst>

--- a/auto_appium/app_testProject/Report/Report.xlsx
+++ b/auto_appium/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-09-11 17:22:04</t>
+    <t>2018-09-12 17:05:15</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>13秒</t>
+    <t>38秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -110,16 +110,33 @@
     <t>截图</t>
   </si>
   <si>
-    <t>test001_test002_</t>
-  </si>
-  <si>
-    <t>第一次启动app_登录_</t>
-  </si>
-  <si>
-    <t>multi_testcase</t>
-  </si>
-  <si>
-    <t>打开app_输入账号_</t>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>第一次启动app</t>
+  </si>
+  <si>
+    <t>testLogin</t>
+  </si>
+  <si>
+    <t>打开app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打开页面成功
+</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>输入账号</t>
   </si>
   <si>
     <t xml:space="preserve">登录
@@ -127,8 +144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">打开页面成功
-输入成功
+    <t xml:space="preserve">输入成功
 </t>
   </si>
 </sst>
@@ -287,7 +303,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -685,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -702,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -755,7 +771,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -866,9 +882,90 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
-    <row r="5" spans="1:10" ht="30" customHeight="1"/>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10" ht="30" customHeight="1"/>

--- a/auto_appium/app_testProject/Report/Report.xlsx
+++ b/auto_appium/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-09-12 17:05:15</t>
+    <t>2018-09-13 17:26:06</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>38秒</t>
+    <t>12秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -116,7 +116,7 @@
     <t>第一次启动app</t>
   </si>
   <si>
-    <t>testLogin</t>
+    <t>testFirstOpen</t>
   </si>
   <si>
     <t>打开app</t>
@@ -127,24 +127,6 @@
   </si>
   <si>
     <t xml:space="preserve">打开页面成功
-</t>
-  </si>
-  <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>输入账号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登录
-输入账号
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入成功
 </t>
   </si>
 </sst>
@@ -303,7 +285,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -701,7 +683,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -718,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -771,7 +753,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -882,90 +864,9 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+    <row r="5" spans="1:10" ht="30" customHeight="1"/>
+    <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
     <row r="8" spans="1:10" ht="30" customHeight="1"/>
     <row r="9" spans="1:10" ht="30" customHeight="1"/>

--- a/auto_appium/app_testProject/Report/Report.xlsx
+++ b/auto_appium/app_testProject/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2017/12/4 13:00</t>
   </si>
   <si>
-    <t>2018-09-13 17:26:06</t>
+    <t>2018-09-16 16:28:55</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>12秒</t>
+    <t>11秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -71,13 +71,19 @@
     <t>机型</t>
   </si>
   <si>
+    <t>版本</t>
+  </si>
+  <si>
     <t>通过</t>
   </si>
   <si>
     <t>失败</t>
   </si>
   <si>
-    <t>brand1_model2_android_5.1.1</t>
+    <t>brand1_model2</t>
+  </si>
+  <si>
+    <t>android_5.1.1</t>
   </si>
   <si>
     <t>测试详情</t>
@@ -325,15 +331,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -747,15 +753,21 @@
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="3">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -792,7 +804,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -809,57 +821,57 @@
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>

--- a/auto_appium/app_testProject/Report/Report.xlsx
+++ b/auto_appium/app_testProject/Report/Report.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>测试报告总概况</t>
   </si>
   <si>
-    <t>WebLink知识测试概括</t>
+    <t>'dr.fone'知识测试概括</t>
   </si>
   <si>
     <t>versionCode</t>
@@ -29,22 +29,22 @@
     <t>versionName</t>
   </si>
   <si>
-    <t>packingTime</t>
+    <t>packageName</t>
   </si>
   <si>
     <t>测试日期</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>2017/12/4 13:00</t>
-  </si>
-  <si>
-    <t>2018-09-16 16:28:55</t>
+    <t>68</t>
+  </si>
+  <si>
+    <t>3.2.0.162</t>
+  </si>
+  <si>
+    <t>com.wondershare.drfone</t>
+  </si>
+  <si>
+    <t>2018-09-20 16:29:43</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>11秒</t>
+    <t>51秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -134,6 +134,10 @@
   <si>
     <t xml:space="preserve">打开页面成功
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">用例失败重连过一次，失败原因:执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, 
+执行过程中失败，请检查元素是否存在com.tencent.mm:id/d1w, </t>
   </si>
 </sst>
 </file>
@@ -294,7 +298,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,6 +361,49 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="第一次启动appCheckPoint_1_NG.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13096875" y="952500"/>
+          <a:ext cx="476250" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -647,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -689,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -723,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -769,6 +816,20 @@
       </c>
       <c r="D9" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -876,7 +937,35 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1"/>
+    <row r="4" spans="1:10" ht="110" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
@@ -889,5 +978,6 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>